--- a/brava/centerline/siphon(lab)/siphon_bend_metrics.xlsx
+++ b/brava/centerline/siphon(lab)/siphon_bend_metrics.xlsx
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.83011249552916</v>
+        <v>16.9493125629722</v>
       </c>
       <c r="C16" t="n">
-        <v>1.565022990958322</v>
+        <v>2.551867074690413</v>
       </c>
       <c r="D16" t="n">
-        <v>20.36361945926759</v>
+        <v>14.83054169213082</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3503346836650514</v>
+        <v>1.457332174625342</v>
       </c>
     </row>
     <row r="17">
